--- a/raw_data/seigel_data.xlsx
+++ b/raw_data/seigel_data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22460" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>alpha_3</t>
   </si>
@@ -243,13 +244,70 @@
   </si>
   <si>
     <t>fisheries_mon_yr</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Data obtained from Seigel et al. 2019</t>
+  </si>
+  <si>
+    <t>Table in SI</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>Number of small-scale fishers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of locally landed seafood that is consumed on-island, based on fisheries production and export data from the FAO </t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>Value of landed reef fisheries (in 2010, in $USD)</t>
+  </si>
+  <si>
+    <t>Presence of ecological monitoring programs</t>
+  </si>
+  <si>
+    <t>Presence of fisheries monitoring programs</t>
+  </si>
+  <si>
+    <t>Existence of adaptive fisheries management plans</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +338,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,12 +366,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,13 +650,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
